--- a/resources/analysis/grammar/ClusterPrediction.xlsx
+++ b/resources/analysis/grammar/ClusterPrediction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mzatt\Projects\Git - v4j\resources\analysis\grammar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD6D2178-BA5F-4A19-BBE7-207598F1E4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FE9550B6-0FEE-41A3-9E61-B2B269F3B939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
@@ -1007,7 +1007,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1205,6 +1205,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1394,7 +1400,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1417,6 +1423,10 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -13965,115 +13975,110 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9.140625" style="5"/>
+    <col min="9" max="10" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="2:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="6">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6"/>
       <c r="D4" s="6">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="6">
-        <v>2</v>
-      </c>
+      <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="6">
-        <v>3</v>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="D6" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="H6" s="6">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6">
@@ -14081,13 +14086,45 @@
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B4:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
